--- a/designs/NewProject_Template_v1.xlsx
+++ b/designs/NewProject_Template_v1.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F33AE-69DC-4565-875F-4C9840CC7827}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF248F08-E2AD-4C93-BB45-FF8B0C62A0E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story1" sheetId="2" r:id="rId1"/>
     <sheet name="Create Repo" sheetId="3" r:id="rId2"/>
-    <sheet name="Develop module" sheetId="4" r:id="rId3"/>
+    <sheet name="New project" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="sprint1_done">Story1!$H$32</definedName>
+    <definedName name="sprint1_done">Story1!$H$33</definedName>
     <definedName name="sprint1_hours">Story1!#REF!</definedName>
     <definedName name="sprint1_interval">Story1!$M$2</definedName>
     <definedName name="sprint1_start">Story1!$O$2</definedName>
-    <definedName name="sprint1_target">Story1!$I$32</definedName>
+    <definedName name="sprint1_target">Story1!$I$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Todo</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Define name</t>
   </si>
   <si>
-    <t>[npm init]</t>
-  </si>
-  <si>
     <t>(Create repo)</t>
   </si>
   <si>
@@ -231,6 +228,45 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>(Create new app)</t>
+  </si>
+  <si>
+    <t>[[copy from see_it done]]</t>
+  </si>
+  <si>
+    <t>Create new project process</t>
+  </si>
+  <si>
+    <t>[setup.bat]</t>
+  </si>
+  <si>
+    <t>[[run setup.bat]]</t>
+  </si>
+  <si>
+    <t>[copy .gitignore]</t>
+  </si>
+  <si>
+    <t>[copy package.json]</t>
+  </si>
+  <si>
+    <t>[copy readme]</t>
+  </si>
+  <si>
+    <t>[edit package.json]</t>
+  </si>
+  <si>
+    <t>[edit readme]</t>
+  </si>
+  <si>
+    <t>[yarn]</t>
+  </si>
+  <si>
+    <t>[commit]</t>
   </si>
 </sst>
 </file>
@@ -239,9 +275,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ \(hh:mm\)"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ \(hh:mm\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +322,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -324,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -432,13 +474,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -526,19 +579,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -547,9 +606,27 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ \(hh:mm\)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -579,27 +656,9 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ \(hh:mm\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -978,7 +1037,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1074,43 +1133,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,8 +2124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B21:G29" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B21:G29" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B21:G30" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="B21:G30" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="13">
       <calculatedColumnFormula>B21+1</calculatedColumnFormula>
@@ -2085,12 +2144,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85AB8A2C-C05D-4184-BBD0-44916944D3D1}" name="Table356" displayName="Table356" ref="M4:P17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="M4:P17" xr:uid="{B4E47BE6-B706-48D2-9A58-EF844AA63D10}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21AB817D-3FA6-45D0-AE28-7DB75AF351BD}" name="Date" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{21AB817D-3FA6-45D0-AE28-7DB75AF351BD}" name="Date" dataDxfId="3">
       <calculatedColumnFormula>sprint1_start +L5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2E6AA19C-69EB-4838-8FF4-E99984170353}" name="Time" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A4DE0FF1-8DF7-4C5D-8133-416899B01540}" name="Target" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6B645165-7342-41BB-B2F5-FCAE0876A18A}" name="Actual" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{2E6AA19C-69EB-4838-8FF4-E99984170353}" name="Time" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A4DE0FF1-8DF7-4C5D-8133-416899B01540}" name="Target" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6B645165-7342-41BB-B2F5-FCAE0876A18A}" name="Actual" dataDxfId="0">
       <calculatedColumnFormula>sprint1_target-R5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2419,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,12 +2567,12 @@
         <v>2</v>
       </c>
       <c r="S2" s="17">
-        <f>I32/Q2</f>
-        <v>10.666666666666666</v>
+        <f>I33/Q2</f>
+        <v>12</v>
       </c>
       <c r="T2" s="30">
         <f ca="1">(Q2-R2)*S2</f>
-        <v>10.666666666666666</v>
+        <v>12</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
@@ -2536,10 +2595,10 @@
       <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="24">
         <f ca="1">NOW()</f>
-        <v>43526.918096990739</v>
+        <v>43526.939018171295</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="2"/>
@@ -2567,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>10</v>
@@ -2603,18 +2662,18 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="42">
         <f t="shared" ref="M5:M17" si="1">sprint1_start +L5</f>
         <v>43526</v>
       </c>
-      <c r="N5" s="42"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="10">
         <f>sprint1_target</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" ref="P5:P17" si="2">sprint1_target-R5</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="10"/>
@@ -2641,17 +2700,17 @@
         <f t="shared" ref="L6:L17" si="3">L5+sprint1_interval</f>
         <v>0.17</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="42">
         <f t="shared" si="1"/>
         <v>43526.17</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="40">
         <v>0.45833333333333331</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="23">
         <v>0</v>
@@ -2662,7 +2721,7 @@
       </c>
       <c r="S6" s="17">
         <f t="shared" ref="S6:S17" si="4">(sprint1_target/12) *L6</f>
-        <v>0.45333333333333337</v>
+        <v>0.51</v>
       </c>
       <c r="V6" s="1">
         <v>4</v>
@@ -2684,17 +2743,17 @@
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="42">
         <f t="shared" si="1"/>
         <v>43526.34</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="40">
         <v>0.54166666666666663</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="23">
         <v>0</v>
@@ -2705,7 +2764,7 @@
       </c>
       <c r="S7" s="17">
         <f t="shared" si="4"/>
-        <v>0.90666666666666673</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8" spans="9:25" x14ac:dyDescent="0.25">
@@ -2713,17 +2772,17 @@
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="42">
         <f t="shared" si="1"/>
         <v>43526.51</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="40">
         <v>0.66666666666666663</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="23">
         <v>0</v>
@@ -2734,7 +2793,7 @@
       </c>
       <c r="S8" s="17">
         <f t="shared" si="4"/>
-        <v>1.3599999999999999</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="9" spans="9:25" x14ac:dyDescent="0.25">
@@ -2742,17 +2801,17 @@
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="42">
         <f t="shared" si="1"/>
         <v>43526.68</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="40">
         <v>0.79166666666666663</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="23">
         <v>0</v>
@@ -2763,7 +2822,7 @@
       </c>
       <c r="S9" s="17">
         <f t="shared" si="4"/>
-        <v>1.8133333333333335</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="10" spans="9:25" x14ac:dyDescent="0.25">
@@ -2771,29 +2830,29 @@
         <f t="shared" si="3"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="42">
         <f t="shared" si="1"/>
         <v>43526.85</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="40">
         <v>0.91666666666666663</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="23">
         <f>sprint1_done</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R10" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S10" s="17">
         <f t="shared" si="4"/>
-        <v>2.2666666666666666</v>
+        <v>2.5500000000000003</v>
       </c>
     </row>
     <row r="11" spans="9:25" x14ac:dyDescent="0.25">
@@ -2801,28 +2860,28 @@
         <f t="shared" si="3"/>
         <v>1.02</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="42">
         <f t="shared" si="1"/>
         <v>43527.02</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="40">
         <v>0.45833333333333331</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="23">
         <v>0</v>
       </c>
       <c r="R11" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S11" s="17">
         <f t="shared" si="4"/>
-        <v>2.7199999999999998</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="12" spans="9:25" x14ac:dyDescent="0.25">
@@ -2830,28 +2889,28 @@
         <f t="shared" si="3"/>
         <v>1.19</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="42">
         <f t="shared" si="1"/>
         <v>43527.19</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="40">
         <v>0.54166666666666663</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="23">
         <v>0</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S12" s="17">
         <f t="shared" si="4"/>
-        <v>3.1733333333333329</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="13" spans="9:25" x14ac:dyDescent="0.25">
@@ -2859,28 +2918,28 @@
         <f t="shared" si="3"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="42">
         <f t="shared" si="1"/>
         <v>43527.360000000001</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="40">
         <v>0.66666666666666663</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="23">
         <v>0</v>
       </c>
       <c r="R13" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" si="4"/>
-        <v>3.626666666666666</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="14" spans="9:25" x14ac:dyDescent="0.25">
@@ -2888,28 +2947,28 @@
         <f t="shared" si="3"/>
         <v>1.5299999999999998</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="42">
         <f t="shared" si="1"/>
         <v>43527.53</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="40">
         <v>0.79166666666666663</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="23">
         <v>0</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S14" s="17">
         <f t="shared" si="4"/>
-        <v>4.0799999999999992</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="15" spans="9:25" x14ac:dyDescent="0.25">
@@ -2917,28 +2976,28 @@
         <f t="shared" si="3"/>
         <v>1.6999999999999997</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="42">
         <f t="shared" si="1"/>
         <v>43527.7</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="40">
         <v>0.91666666666666663</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="23">
         <v>0</v>
       </c>
       <c r="R15" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S15" s="17">
         <f t="shared" si="4"/>
-        <v>4.5333333333333323</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="16" spans="9:25" x14ac:dyDescent="0.25">
@@ -2946,28 +3005,28 @@
         <f t="shared" si="3"/>
         <v>1.8699999999999997</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <f t="shared" si="1"/>
         <v>43527.87</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="40">
         <v>0.95833333333333337</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="23">
         <v>0</v>
       </c>
       <c r="R16" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S16" s="17">
         <f t="shared" si="4"/>
-        <v>4.9866666666666655</v>
+        <v>5.6099999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2975,11 +3034,11 @@
         <f t="shared" si="3"/>
         <v>2.0399999999999996</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="43">
         <f t="shared" si="1"/>
         <v>43528.04</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="41">
         <v>0</v>
       </c>
       <c r="O17" s="19">
@@ -2987,18 +3046,18 @@
       </c>
       <c r="P17" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="23">
         <v>0</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="4"/>
-        <v>5.4399999999999986</v>
+        <v>6.1199999999999992</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -3012,15 +3071,15 @@
       <c r="S18" s="31"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -3050,16 +3109,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3071,16 +3130,16 @@
         <v>27</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3092,16 +3151,16 @@
         <v>29</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3113,16 +3172,16 @@
         <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3131,12 +3190,14 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="18"/>
     </row>
@@ -3146,9 +3207,11 @@
         <v>6</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="18"/>
@@ -3159,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3172,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3180,80 +3243,93 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="47">
+        <f>B29+1</f>
+        <v>9</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="str">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="str">
         <f>A20</f>
         <v>Story1:Todo</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="1">
-        <f>COUNTA(C22:C29)</f>
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <f>COUNTA(D22:D29)</f>
+      <c r="B33" s="44"/>
+      <c r="C33" s="1">
+        <f>COUNTA(C22:C30)</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <f>COUNTA(D22:D30)</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <f>COUNTA(E22:E30)</f>
         <v>5</v>
       </c>
-      <c r="E32" s="1">
-        <f>COUNTA(E22:E29)</f>
+      <c r="F33" s="1">
+        <f>COUNTA(F22:F30)</f>
         <v>4</v>
       </c>
-      <c r="F32" s="1">
-        <f>COUNTA(F22:F29)</f>
+      <c r="G33" s="4">
+        <f>COUNTA(G22:G30)</f>
         <v>4</v>
       </c>
-      <c r="G32" s="4">
-        <f>COUNTA(G22:G29)</f>
-        <v>4</v>
-      </c>
-      <c r="H32" s="10">
-        <f>SUM(D32:G32)</f>
-        <v>17</v>
-      </c>
-      <c r="I32" s="10">
-        <f>C32*4</f>
-        <v>32</v>
-      </c>
-      <c r="J32" s="21">
-        <f>H32/I32</f>
-        <v>0.53125</v>
+      <c r="H33" s="10">
+        <f>SUM(D33:G33)</f>
+        <v>19</v>
+      </c>
+      <c r="I33" s="10">
+        <f>C33*4</f>
+        <v>36</v>
+      </c>
+      <c r="J33" s="21">
+        <f>H33/I33</f>
+        <v>0.52777777777777779</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="M2:O2 Q6:Q17" name="Range3"/>
     <protectedRange sqref="A20" name="Range1"/>
-    <protectedRange sqref="B21:G29" name="Table"/>
+    <protectedRange sqref="B21:G30" name="Table"/>
   </protectedRanges>
   <mergeCells count="2">
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A20:G20"/>
   </mergeCells>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J33">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3291,7 +3367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J32</xm:sqref>
+          <xm:sqref>J33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3301,115 +3377,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAD6D6-A384-4AEA-8AC2-BBE5FFB636DC}">
-  <dimension ref="A2:A21"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3420,17 +3525,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60861CDF-960E-4F70-9B42-1E7C1BF100C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/designs/NewProject_Template_v1.xlsx
+++ b/designs/NewProject_Template_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF248F08-E2AD-4C93-BB45-FF8B0C62A0E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80855B-0392-4736-AC01-6A59ADD43D90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story1" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>Todo</t>
   </si>
@@ -586,16 +586,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1148,28 +1148,28 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,7 +2481,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2598,7 @@
       <c r="N3" s="39"/>
       <c r="O3" s="24">
         <f ca="1">NOW()</f>
-        <v>43526.939018171295</v>
+        <v>43526.945201041664</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="2"/>
@@ -2840,15 +2840,15 @@
       <c r="O10" s="10"/>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="23">
         <f>sprint1_done</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R10" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S10" s="17">
         <f t="shared" si="4"/>
@@ -2870,14 +2870,14 @@
       <c r="O11" s="10"/>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="23">
         <v>0</v>
       </c>
       <c r="R11" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S11" s="17">
         <f t="shared" si="4"/>
@@ -2899,14 +2899,14 @@
       <c r="O12" s="10"/>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="23">
         <v>0</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S12" s="17">
         <f t="shared" si="4"/>
@@ -2928,14 +2928,14 @@
       <c r="O13" s="10"/>
       <c r="P13" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="23">
         <v>0</v>
       </c>
       <c r="R13" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" si="4"/>
@@ -2957,14 +2957,14 @@
       <c r="O14" s="10"/>
       <c r="P14" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="23">
         <v>0</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S14" s="17">
         <f t="shared" si="4"/>
@@ -2986,14 +2986,14 @@
       <c r="O15" s="10"/>
       <c r="P15" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="23">
         <v>0</v>
       </c>
       <c r="R15" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S15" s="17">
         <f t="shared" si="4"/>
@@ -3015,14 +3015,14 @@
       <c r="O16" s="10"/>
       <c r="P16" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="23">
         <v>0</v>
       </c>
       <c r="R16" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S16" s="17">
         <f t="shared" si="4"/>
@@ -3046,14 +3046,14 @@
       </c>
       <c r="P17" s="18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="23">
         <v>0</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="4"/>
@@ -3071,15 +3071,15 @@
       <c r="S18" s="31"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -3198,7 +3198,9 @@
       <c r="E26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3212,7 +3214,9 @@
       <c r="D27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="18"/>
     </row>
@@ -3243,17 +3247,17 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="47">
+      <c r="B30" s="45">
         <f>B29+1</f>
         <v>9</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="49"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
@@ -3281,11 +3285,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="str">
+      <c r="A33" s="48" t="str">
         <f>A20</f>
         <v>Story1:Todo</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="1">
         <f>COUNTA(C22:C30)</f>
         <v>9</v>
@@ -3296,11 +3300,11 @@
       </c>
       <c r="E33" s="1">
         <f>COUNTA(E22:E30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <f>COUNTA(F22:F30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="4">
         <f>COUNTA(G22:G30)</f>
@@ -3308,7 +3312,7 @@
       </c>
       <c r="H33" s="10">
         <f>SUM(D33:G33)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" s="10">
         <f>C33*4</f>
@@ -3316,7 +3320,7 @@
       </c>
       <c r="J33" s="21">
         <f>H33/I33</f>
-        <v>0.52777777777777779</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -3395,7 +3399,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
@@ -3403,7 +3407,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -3416,7 +3420,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
@@ -3424,7 +3428,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
@@ -3432,7 +3436,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
@@ -3440,7 +3444,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
@@ -3448,7 +3452,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
@@ -3456,7 +3460,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
@@ -3464,7 +3468,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
@@ -3472,7 +3476,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
@@ -3480,7 +3484,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">

--- a/designs/NewProject_Template_v1.xlsx
+++ b/designs/NewProject_Template_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80855B-0392-4736-AC01-6A59ADD43D90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A853FBF5-8444-439E-AAC5-3014111530C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story1" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="New project" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="sprint1_done">Story1!$H$33</definedName>
+    <definedName name="sprint1_done">Story1!$H$34</definedName>
     <definedName name="sprint1_hours">Story1!#REF!</definedName>
     <definedName name="sprint1_interval">Story1!$M$2</definedName>
     <definedName name="sprint1_start">Story1!$O$2</definedName>
-    <definedName name="sprint1_target">Story1!$I$33</definedName>
+    <definedName name="sprint1_target">Story1!$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Todo</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>[commit]</t>
+  </si>
+  <si>
+    <t>Create new project</t>
+  </si>
+  <si>
+    <t>Define create process</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,11 +598,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1037,7 +1046,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1133,43 +1142,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,8 +2103,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2124,11 +2133,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B21:G30" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B21:G30" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B20:G31" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="B20:G31" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="13">
-      <calculatedColumnFormula>B21+1</calculatedColumnFormula>
+      <calculatedColumnFormula>B20+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{428E28ED-3A5D-4400-816D-83AE8AA8FFBD}" name="Task" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Asigned" dataDxfId="11"/>
@@ -2478,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,15 +2573,15 @@
       </c>
       <c r="R2" s="25">
         <f ca="1">DATEDIF(O3,P2,"d")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="17">
-        <f>I33/Q2</f>
-        <v>12</v>
+        <f>I34/Q2</f>
+        <v>14.666666666666666</v>
       </c>
       <c r="T2" s="30">
         <f ca="1">(Q2-R2)*S2</f>
-        <v>12</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
@@ -2598,7 +2607,7 @@
       <c r="N3" s="39"/>
       <c r="O3" s="24">
         <f ca="1">NOW()</f>
-        <v>43526.945201041664</v>
+        <v>43527.288564236114</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="2"/>
@@ -2669,11 +2678,11 @@
       <c r="N5" s="40"/>
       <c r="O5" s="10">
         <f>sprint1_target</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" ref="P5:P17" si="2">sprint1_target-R5</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="10"/>
@@ -2710,7 +2719,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="23">
         <v>0</v>
@@ -2721,7 +2730,7 @@
       </c>
       <c r="S6" s="17">
         <f t="shared" ref="S6:S17" si="4">(sprint1_target/12) *L6</f>
-        <v>0.51</v>
+        <v>0.62333333333333341</v>
       </c>
       <c r="V6" s="1">
         <v>4</v>
@@ -2753,7 +2762,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="23">
         <v>0</v>
@@ -2764,7 +2773,7 @@
       </c>
       <c r="S7" s="17">
         <f t="shared" si="4"/>
-        <v>1.02</v>
+        <v>1.2466666666666668</v>
       </c>
     </row>
     <row r="8" spans="9:25" x14ac:dyDescent="0.25">
@@ -2782,7 +2791,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="23">
         <v>0</v>
@@ -2793,7 +2802,7 @@
       </c>
       <c r="S8" s="17">
         <f t="shared" si="4"/>
-        <v>1.53</v>
+        <v>1.8699999999999999</v>
       </c>
     </row>
     <row r="9" spans="9:25" x14ac:dyDescent="0.25">
@@ -2811,7 +2820,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="23">
         <v>0</v>
@@ -2822,7 +2831,7 @@
       </c>
       <c r="S9" s="17">
         <f t="shared" si="4"/>
-        <v>2.04</v>
+        <v>2.4933333333333336</v>
       </c>
     </row>
     <row r="10" spans="9:25" x14ac:dyDescent="0.25">
@@ -2840,10 +2849,9 @@
       <c r="O10" s="10"/>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="23">
-        <f>sprint1_done</f>
         <v>21</v>
       </c>
       <c r="R10" s="10">
@@ -2852,7 +2860,7 @@
       </c>
       <c r="S10" s="17">
         <f t="shared" si="4"/>
-        <v>2.5500000000000003</v>
+        <v>3.1166666666666667</v>
       </c>
     </row>
     <row r="11" spans="9:25" x14ac:dyDescent="0.25">
@@ -2870,7 +2878,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="23">
         <v>0</v>
@@ -2881,7 +2889,7 @@
       </c>
       <c r="S11" s="17">
         <f t="shared" si="4"/>
-        <v>3.06</v>
+        <v>3.7399999999999998</v>
       </c>
     </row>
     <row r="12" spans="9:25" x14ac:dyDescent="0.25">
@@ -2899,7 +2907,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="23">
         <v>0</v>
@@ -2910,7 +2918,7 @@
       </c>
       <c r="S12" s="17">
         <f t="shared" si="4"/>
-        <v>3.57</v>
+        <v>4.3633333333333333</v>
       </c>
     </row>
     <row r="13" spans="9:25" x14ac:dyDescent="0.25">
@@ -2928,10 +2936,11 @@
       <c r="O13" s="10"/>
       <c r="P13" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="23">
-        <v>0</v>
+        <f>sprint1_done</f>
+        <v>21</v>
       </c>
       <c r="R13" s="10">
         <f t="shared" si="5"/>
@@ -2939,7 +2948,7 @@
       </c>
       <c r="S13" s="17">
         <f t="shared" si="4"/>
-        <v>4.08</v>
+        <v>4.9866666666666664</v>
       </c>
     </row>
     <row r="14" spans="9:25" x14ac:dyDescent="0.25">
@@ -2957,7 +2966,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="23">
         <v>0</v>
@@ -2968,7 +2977,7 @@
       </c>
       <c r="S14" s="17">
         <f t="shared" si="4"/>
-        <v>4.59</v>
+        <v>5.6099999999999994</v>
       </c>
     </row>
     <row r="15" spans="9:25" x14ac:dyDescent="0.25">
@@ -2986,7 +2995,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="23">
         <v>0</v>
@@ -2997,7 +3006,7 @@
       </c>
       <c r="S15" s="17">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>6.2333333333333325</v>
       </c>
     </row>
     <row r="16" spans="9:25" x14ac:dyDescent="0.25">
@@ -3015,7 +3024,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="23">
         <v>0</v>
@@ -3026,7 +3035,7 @@
       </c>
       <c r="S16" s="17">
         <f t="shared" si="4"/>
-        <v>5.6099999999999994</v>
+        <v>6.8566666666666656</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -3046,7 +3055,7 @@
       </c>
       <c r="P17" s="18">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="23">
         <v>0</v>
@@ -3057,7 +3066,7 @@
       </c>
       <c r="S17" s="17">
         <f t="shared" si="4"/>
-        <v>6.1199999999999992</v>
+        <v>7.4799999999999978</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -3070,43 +3079,64 @@
       <c r="R18" s="20"/>
       <c r="S18" s="31"/>
     </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+    </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>3</v>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <v>1</v>
+        <f>B21+1</f>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>54</v>
@@ -3123,11 +3153,11 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <f>B22+1</f>
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
+        <f t="shared" ref="B23:B24" si="6">B22+1</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>54</v>
@@ -3144,11 +3174,11 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <f t="shared" ref="B24:B25" si="6">B23+1</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>54</v>
@@ -3165,11 +3195,11 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" ref="B25:B28" si="7">B24+1</f>
+        <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>54</v>
@@ -3178,19 +3208,17 @@
         <v>54</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
-        <f t="shared" ref="B26:B29" si="7">B25+1</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>54</v>
@@ -3198,35 +3226,29 @@
       <c r="E26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>54</v>
-      </c>
+        <f>B26+1</f>
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3234,25 +3256,25 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <f t="shared" si="7"/>
-        <v>8</v>
+      <c r="B29" s="45">
+        <f>B28+1</f>
+        <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="45">
         <f>B29+1</f>
-        <v>9</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -3260,80 +3282,93 @@
       <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="B31" s="45">
+        <f>B30+1</f>
+        <v>11</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="str">
-        <f>A20</f>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="str">
+        <f>A19</f>
         <v>Story1:Todo</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="1">
-        <f>COUNTA(C22:C30)</f>
-        <v>9</v>
-      </c>
-      <c r="D33" s="1">
-        <f>COUNTA(D22:D30)</f>
+      <c r="B34" s="50"/>
+      <c r="C34" s="1">
+        <f>COUNTA(C21:C31)</f>
+        <v>11</v>
+      </c>
+      <c r="D34" s="1">
+        <f>COUNTA(D21:D31)</f>
         <v>6</v>
       </c>
-      <c r="E33" s="1">
-        <f>COUNTA(E22:E30)</f>
+      <c r="E34" s="1">
+        <f>COUNTA(E21:E31)</f>
         <v>6</v>
       </c>
-      <c r="F33" s="1">
-        <f>COUNTA(F22:F30)</f>
+      <c r="F34" s="1">
+        <f>COUNTA(F21:F31)</f>
         <v>5</v>
       </c>
-      <c r="G33" s="4">
-        <f>COUNTA(G22:G30)</f>
+      <c r="G34" s="4">
+        <f>COUNTA(G21:G31)</f>
         <v>4</v>
       </c>
-      <c r="H33" s="10">
-        <f>SUM(D33:G33)</f>
+      <c r="H34" s="10">
+        <f>SUM(D34:G34)</f>
         <v>21</v>
       </c>
-      <c r="I33" s="10">
-        <f>C33*4</f>
-        <v>36</v>
-      </c>
-      <c r="J33" s="21">
-        <f>H33/I33</f>
-        <v>0.58333333333333337</v>
+      <c r="I34" s="10">
+        <f>C34*4</f>
+        <v>44</v>
+      </c>
+      <c r="J34" s="21">
+        <f>H34/I34</f>
+        <v>0.47727272727272729</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="M2:O2 Q6:Q17" name="Range3"/>
-    <protectedRange sqref="A20" name="Range1"/>
-    <protectedRange sqref="B21:G30" name="Table"/>
+    <protectedRange sqref="A19" name="Range1"/>
+    <protectedRange sqref="C29:C31 B20:B31 D20:G31 C20:C26" name="Table"/>
   </protectedRanges>
   <mergeCells count="2">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J34">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3371,7 +3406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J33</xm:sqref>
+          <xm:sqref>J34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
